--- a/scale_calibration/mass.xlsx
+++ b/scale_calibration/mass.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuliy\OneDrive\Documents\Fall 2023\Research\scale_calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE8A10D-4BB5-40B9-8D3D-59C64AEB0F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580D360C-60E2-4E37-9132-974DC39AC6F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Hidex tare (g)</t>
   </si>
@@ -45,6 +45,18 @@
   </si>
   <si>
     <t>Hidex sample mass (g)</t>
+  </si>
+  <si>
+    <t>Manual total (g)</t>
+  </si>
+  <si>
+    <t>Manual sample mass (g)</t>
+  </si>
+  <si>
+    <t>Manual tare with holders (g)</t>
+  </si>
+  <si>
+    <t>Manual tare no holders (g)</t>
   </si>
 </sst>
 </file>
@@ -83,9 +95,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,18 +379,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -387,20 +403,35 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>5.9897999999999998</v>
       </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <f>B2-A2</f>
-        <v>-5.9897999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2">
+        <v>5.9895699999999996</v>
+      </c>
+      <c r="E2">
+        <v>3.3473899999999999</v>
+      </c>
+      <c r="F2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>6.0740999999999996</v>
       </c>
@@ -411,8 +442,22 @@
         <f t="shared" ref="C3:C21" si="0">B3-A3</f>
         <v>0.30790000000000006</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>6.0741400000000008</v>
+      </c>
+      <c r="E3">
+        <v>3.3924899999999996</v>
+      </c>
+      <c r="F3">
+        <v>3.7001300000000001</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G21" si="1">F3-E3</f>
+        <v>0.30764000000000058</v>
+      </c>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>5.8960999999999997</v>
       </c>
@@ -423,8 +468,22 @@
         <f t="shared" si="0"/>
         <v>0.40350000000000019</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>5.8953800000000003</v>
+      </c>
+      <c r="E4">
+        <v>3.3759699999999997</v>
+      </c>
+      <c r="F4">
+        <v>3.7801100000000001</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>0.40414000000000039</v>
+      </c>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>6.0418000000000003</v>
       </c>
@@ -435,8 +494,22 @@
         <f t="shared" si="0"/>
         <v>0.50049999999999972</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>6.0415100000000006</v>
+      </c>
+      <c r="E5">
+        <v>3.3662399999999999</v>
+      </c>
+      <c r="F5">
+        <v>3.8668499999999999</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0.50061</v>
+      </c>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5.8811</v>
       </c>
@@ -447,8 +520,16 @@
         <f t="shared" si="0"/>
         <v>0.60080000000000044</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>5.8807799999999997</v>
+      </c>
+      <c r="E6">
+        <v>3.3410100000000003</v>
+      </c>
+      <c r="F6"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6.0125999999999999</v>
       </c>
@@ -459,8 +540,22 @@
         <f t="shared" si="0"/>
         <v>0.59020000000000028</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>6.0124199999999997</v>
+      </c>
+      <c r="E7">
+        <v>3.3625100000000003</v>
+      </c>
+      <c r="F7">
+        <v>3.95302</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0.59050999999999965</v>
+      </c>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5.8601000000000001</v>
       </c>
@@ -471,8 +566,22 @@
         <f t="shared" si="0"/>
         <v>0.79340000000000011</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>5.85989</v>
+      </c>
+      <c r="E8">
+        <v>3.3093499999999998</v>
+      </c>
+      <c r="F8">
+        <v>4.1027899999999997</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0.79343999999999992</v>
+      </c>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5.9005999999999998</v>
       </c>
@@ -483,8 +592,16 @@
         <f t="shared" si="0"/>
         <v>0.90110000000000046</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>5.9004500000000002</v>
+      </c>
+      <c r="E9">
+        <v>3.3482399999999997</v>
+      </c>
+      <c r="F9"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6.0625999999999998</v>
       </c>
@@ -495,8 +612,22 @@
         <f t="shared" si="0"/>
         <v>1.0428000000000006</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>6.06229</v>
+      </c>
+      <c r="E10">
+        <v>3.40279</v>
+      </c>
+      <c r="F10">
+        <v>4.4457299999999993</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>1.0429399999999993</v>
+      </c>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>6.0427</v>
       </c>
@@ -507,8 +638,22 @@
         <f t="shared" si="0"/>
         <v>1.1497999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>6.0425200000000006</v>
+      </c>
+      <c r="E11">
+        <v>3.3786</v>
+      </c>
+      <c r="F11">
+        <v>4.5285200000000003</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>1.1499200000000003</v>
+      </c>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>5.8593000000000002</v>
       </c>
@@ -519,8 +664,22 @@
         <f t="shared" si="0"/>
         <v>0.20789999999999953</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>5.8590600000000004</v>
+      </c>
+      <c r="E12">
+        <v>3.32287</v>
+      </c>
+      <c r="F12">
+        <v>3.5306299999999999</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0.20775999999999994</v>
+      </c>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>6.0087000000000002</v>
       </c>
@@ -531,8 +690,22 @@
         <f t="shared" si="0"/>
         <v>0.29519999999999946</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>6.0080900000000002</v>
+      </c>
+      <c r="E13">
+        <v>3.3808699999999998</v>
+      </c>
+      <c r="F13">
+        <v>3.63436</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0.25349000000000022</v>
+      </c>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>5.8757999999999999</v>
       </c>
@@ -543,8 +716,22 @@
         <f t="shared" si="0"/>
         <v>0.29769999999999985</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>5.8752899999999997</v>
+      </c>
+      <c r="E14">
+        <v>3.3264</v>
+      </c>
+      <c r="F14">
+        <v>3.6243699999999999</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0.29796999999999985</v>
+      </c>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>6.0271999999999997</v>
       </c>
@@ -555,8 +742,22 @@
         <f t="shared" si="0"/>
         <v>0.50310000000000077</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <v>6.0260500000000006</v>
+      </c>
+      <c r="E15">
+        <v>3.3605800000000001</v>
+      </c>
+      <c r="F15">
+        <v>3.86416</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>0.50357999999999992</v>
+      </c>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>6.0952999999999999</v>
       </c>
@@ -567,8 +768,22 @@
         <f t="shared" si="0"/>
         <v>0.60060000000000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>6.0945799999999997</v>
+      </c>
+      <c r="E16">
+        <v>3.4158600000000003</v>
+      </c>
+      <c r="F16">
+        <v>4.0168299999999997</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>0.60096999999999934</v>
+      </c>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>5.8826000000000001</v>
       </c>
@@ -579,8 +794,22 @@
         <f t="shared" si="0"/>
         <v>0.70030000000000037</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>5.8822900000000002</v>
+      </c>
+      <c r="E17">
+        <v>3.3463699999999998</v>
+      </c>
+      <c r="F17">
+        <v>4.0464200000000003</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>0.70005000000000051</v>
+      </c>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>5.8996000000000004</v>
       </c>
@@ -591,8 +820,22 @@
         <f t="shared" si="0"/>
         <v>0.79659999999999975</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>5.8991499999999997</v>
+      </c>
+      <c r="E18">
+        <v>3.3929399999999998</v>
+      </c>
+      <c r="F18">
+        <v>4.1897600000000006</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>0.79682000000000075</v>
+      </c>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>6.0716999999999999</v>
       </c>
@@ -603,8 +846,22 @@
         <f t="shared" si="0"/>
         <v>0.89069999999999983</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>6.06942</v>
+      </c>
+      <c r="E19">
+        <v>3.3993699999999998</v>
+      </c>
+      <c r="F19">
+        <v>4.2919200000000002</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>0.8925500000000004</v>
+      </c>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>5.9478999999999997</v>
       </c>
@@ -615,8 +872,22 @@
         <f t="shared" si="0"/>
         <v>0.99290000000000056</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <v>5.9474499999999999</v>
+      </c>
+      <c r="E20">
+        <v>3.39839</v>
+      </c>
+      <c r="F20">
+        <v>4.3914499999999999</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>0.99305999999999983</v>
+      </c>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>5.9333</v>
       </c>
@@ -627,6 +898,20 @@
         <f t="shared" si="0"/>
         <v>1.0945</v>
       </c>
+      <c r="D21">
+        <v>5.9329300000000007</v>
+      </c>
+      <c r="E21">
+        <v>3.3893899999999997</v>
+      </c>
+      <c r="F21">
+        <v>4.4840200000000001</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>1.0946300000000004</v>
+      </c>
+      <c r="J21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
